--- a/Bazarbachian-project-plan-v003.xlsx
+++ b/Bazarbachian-project-plan-v003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garobazarbachian/Desktop/NWU/MSDS 460/Assignment-2-Network-Models---Project-Management/Assignment-2-Network-Models---Project-Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garobazarbachian/Desktop/NWU/MSDS 460/Assignment-2-Network-Models---Project-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E157B5-8EBF-2342-81AC-F96C485A3A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A01520-8B47-2A43-BB8E-150EC8D4F90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17460" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
+    <workbookView xWindow="15760" yWindow="740" windowWidth="13660" windowHeight="17400" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>task</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>dataEngineer</t>
-  </si>
-  <si>
-    <t>TOTAL (Work Days)</t>
   </si>
   <si>
     <t>TOTAL (Hours)</t>
@@ -244,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -263,10 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1607D3ED-53EC-405A-8A08-88B30F9AD2ED}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,7 +596,7 @@
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -957,8 +950,8 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>50</v>
+      <c r="A18" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D18">
         <f>SUM(D2:D17)</f>
@@ -974,27 +967,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="9">
-        <f>D18/8</f>
-        <v>16.875</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" ref="E19:F19" si="1">E18/8</f>
-        <v>25.5</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="1"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="8">
         <v>80</v>
       </c>
     </row>

--- a/Bazarbachian-project-plan-v003.xlsx
+++ b/Bazarbachian-project-plan-v003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garobazarbachian/Desktop/NWU/MSDS 460/Assignment-2-Network-Models---Project-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A01520-8B47-2A43-BB8E-150EC8D4F90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C31E6-17AB-6C49-8BA0-97EF69CF1108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="740" windowWidth="13660" windowHeight="17400" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17380" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Bazarbachian-project-plan-v003.xlsx
+++ b/Bazarbachian-project-plan-v003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garobazarbachian/Desktop/NWU/MSDS 460/Assignment-2-Network-Models---Project-Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C31E6-17AB-6C49-8BA0-97EF69CF1108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B35FDA-D47D-AC4E-8CA6-A3A8B3924259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17380" xr2:uid="{1B5D745C-8884-4D33-A526-84118B2469EE}"/>
   </bookViews>
